--- a/NavModule_V2.0_BOM.xlsx
+++ b/NavModule_V2.0_BOM.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>Mfg Part Num</t>
   </si>
@@ -22,33 +22,12 @@
     <t>Mfg Name</t>
   </si>
   <si>
-    <t>VID</t>
-  </si>
-  <si>
-    <t>Qty-1</t>
-  </si>
-  <si>
     <t>Vendor Part Num</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Tolerance</t>
-  </si>
-  <si>
-    <t>Voltage Rating</t>
-  </si>
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Part References</t>
   </si>
   <si>
@@ -58,9 +37,6 @@
     <t>GlobalTop</t>
   </si>
   <si>
-    <t>AD</t>
-  </si>
-  <si>
     <t>ID: 790</t>
   </si>
   <si>
@@ -70,15 +46,6 @@
     <t>GPS</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>3.3V</t>
-  </si>
-  <si>
-    <t>module</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -88,9 +55,6 @@
     <t>TDK</t>
   </si>
   <si>
-    <t>DK</t>
-  </si>
-  <si>
     <t>445-1316-1-ND</t>
   </si>
   <si>
@@ -100,27 +64,9 @@
     <t>Capacitor</t>
   </si>
   <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>25V</t>
-  </si>
-  <si>
-    <t>0.1 uF</t>
-  </si>
-  <si>
-    <t>.1u</t>
-  </si>
-  <si>
-    <t>NW</t>
-  </si>
-  <si>
     <t>Resistor</t>
   </si>
   <si>
-    <t>50V</t>
-  </si>
-  <si>
     <t>C1608X5R1C105K</t>
   </si>
   <si>
@@ -130,15 +76,6 @@
     <t>Capacitor, Ceramic, 1UF, 16V, X5R, 10%, 0603</t>
   </si>
   <si>
-    <t>16V</t>
-  </si>
-  <si>
-    <t>1 uF</t>
-  </si>
-  <si>
-    <t>1u</t>
-  </si>
-  <si>
     <t>CGA3E2X7R1H222K080AA</t>
   </si>
   <si>
@@ -148,9 +85,6 @@
     <t>Capacitor, Ceramic, 2.2nF 50V 10% 0603 X7R</t>
   </si>
   <si>
-    <t>2.2nF</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
@@ -166,12 +100,6 @@
     <t>IC, Sensor</t>
   </si>
   <si>
-    <t>3.3v</t>
-  </si>
-  <si>
-    <t>QFN24</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -190,15 +118,9 @@
     <t>Connector</t>
   </si>
   <si>
-    <t>18GHz</t>
-  </si>
-  <si>
     <t>X2</t>
   </si>
   <si>
-    <t>SMA-142-0701-801/806</t>
-  </si>
-  <si>
     <t>BKP1608HS600-T</t>
   </si>
   <si>
@@ -214,33 +136,18 @@
     <t>Inductor</t>
   </si>
   <si>
-    <t>60 ohm</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
-    <t>bead</t>
-  </si>
-  <si>
     <t>MPU-6050</t>
   </si>
   <si>
-    <t>PHV-5R4V155-R</t>
-  </si>
-  <si>
     <t>PowerStor</t>
   </si>
   <si>
-    <t>4.7k ohm</t>
-  </si>
-  <si>
     <t>R1, R2, R3</t>
   </si>
   <si>
-    <t>4.7k</t>
-  </si>
-  <si>
     <t>P-channel MOSFET</t>
   </si>
   <si>
@@ -253,9 +160,6 @@
     <t>C1, C2, C5, C7</t>
   </si>
   <si>
-    <t>2200p</t>
-  </si>
-  <si>
     <t>BSS84</t>
   </si>
   <si>
@@ -268,12 +172,6 @@
     <t>08N2126</t>
   </si>
   <si>
-    <t>.1%</t>
-  </si>
-  <si>
-    <t>75V</t>
-  </si>
-  <si>
     <t>Resistor, 4.7k ohm, .1%, 100mW, 0603</t>
   </si>
   <si>
@@ -283,12 +181,6 @@
     <t>Supercapacitor, 5.4v, 1.5F</t>
   </si>
   <si>
-    <t>5.4v</t>
-  </si>
-  <si>
-    <t>1.5F</t>
-  </si>
-  <si>
     <t>Fairchild</t>
   </si>
   <si>
@@ -296,13 +188,48 @@
   </si>
   <si>
     <t>U$4</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>PHV-5R4H155-R</t>
+  </si>
+  <si>
+    <t>Q1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -326,14 +253,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -633,476 +562,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.7109375"/>
-    <col min="2" max="2" width="11.7109375"/>
-    <col min="3" max="3" width="4.42578125"/>
-    <col min="4" max="4" width="6"/>
-    <col min="5" max="5" width="15.5703125"/>
-    <col min="6" max="6" width="43"/>
-    <col min="7" max="7" width="16.28515625"/>
-    <col min="8" max="8" width="9.7109375"/>
-    <col min="9" max="9" width="13.42578125"/>
-    <col min="10" max="10" width="8.5703125"/>
-    <col min="11" max="11" width="6.7109375"/>
-    <col min="12" max="12" width="14.5703125"/>
-    <col min="13" max="13" width="21"/>
-    <col min="14" max="1025" width="11.5703125"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125"/>
+    <col min="10" max="10" width="21"/>
+    <col min="11" max="1022" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>29.95</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="1">
+        <f>3*0.048</f>
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1">
+        <f>A5*0.102</f>
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="H6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I6" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="H7" s="1">
+        <v>10.83</v>
+      </c>
+      <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="J3">
-        <v>603</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4">
-        <v>603</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="H8" s="1">
+        <v>5.09</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5">
-        <v>603</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="H9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6">
-        <v>603</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="L6" t="s">
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="M6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9">
-        <v>603</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="H11" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="I11" t="s">
         <v>66</v>
-      </c>
-      <c r="L9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/NavModule_V2.0_BOM.xlsx
+++ b/NavModule_V2.0_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="198"/>
+    <workbookView xWindow="2415" yWindow="2790" windowWidth="15555" windowHeight="8190" tabRatio="198"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>445-5660-1-ND</t>
   </si>
   <si>
-    <t>Capacitor, Ceramic, 2.2nF 50V 10% 0603 X7R</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
@@ -215,6 +212,9 @@
   </si>
   <si>
     <t>Q1</t>
+  </si>
+  <si>
+    <t>Capacitor, Ceramic, 2.2uF 50V 10% 0603 X7R</t>
   </si>
 </sst>
 </file>
@@ -257,9 +257,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -565,7 +566,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -580,13 +581,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -595,13 +596,13 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -624,7 +625,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -637,7 +638,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -653,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -662,41 +663,41 @@
         <v>0.4</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
         <v>49</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
         <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
       </c>
       <c r="H4" s="1">
         <f>3*0.048</f>
         <v>0.14400000000000002</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -712,7 +713,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -722,15 +723,15 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -742,7 +743,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
@@ -751,152 +752,152 @@
         <v>0.1</v>
       </c>
       <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
       </c>
       <c r="H7" s="1">
         <v>10.83</v>
       </c>
       <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
       </c>
       <c r="H8" s="1">
         <v>5.09</v>
       </c>
       <c r="I8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
         <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
       </c>
       <c r="H9" s="1">
         <v>0.1</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="1">
         <v>10.199999999999999</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
       <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
         <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
       </c>
       <c r="H11" s="1">
         <v>0.22</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
